--- a/documentation/PanelSummaries.xlsx
+++ b/documentation/PanelSummaries.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caw6/Desktop/UrbanizationCauseConsequence/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colin\Desktop\UrbanizationCauseConsequence\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6280" yWindow="460" windowWidth="17600" windowHeight="19480" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="6285" yWindow="465" windowWidth="17595" windowHeight="19485" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Panels" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Cointegration Tests" sheetId="3" r:id="rId3"/>
     <sheet name="Causality Tests" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="133">
   <si>
     <t>Country</t>
   </si>
@@ -407,22 +407,84 @@
       <t>y2, y1 reported if significant at 10% level.</t>
     </r>
   </si>
+  <si>
+    <t>Noncumulated Government Effectiveness</t>
+  </si>
+  <si>
+    <t>Noncumulated</t>
+  </si>
+  <si>
+    <t>Raw</t>
+  </si>
+  <si>
+    <t>Control of Corruption</t>
+  </si>
+  <si>
+    <t>-1.23 (0.11)</t>
+  </si>
+  <si>
+    <t>-1.13 (0.13)</t>
+  </si>
+  <si>
+    <t>-1.1 (0.13)</t>
+  </si>
+  <si>
+    <t>-1.14 (0.13)</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Papau New Guinea</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Venezuela, RB</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -498,21 +560,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -520,7 +573,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -536,28 +589,39 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -641,6 +705,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -657,7 +724,13 @@
     <xdr:ext cx="65" cy="172227"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -962,22 +1035,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+    <col min="4" max="5" width="10.875" customWidth="1"/>
+    <col min="9" max="9" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -997,523 +1071,496 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>39</v>
       </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>37</v>
       </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>34</v>
       </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>36</v>
       </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>50</v>
       </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="J24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>42</v>
       </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>43</v>
       </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>35</v>
       </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>47</v>
       </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>122</v>
+      </c>
+      <c r="G31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>123</v>
+      </c>
+      <c r="G35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>49</v>
       </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>124</v>
+      </c>
+      <c r="G40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>125</v>
+      </c>
+      <c r="G42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>18</v>
+      </c>
+      <c r="I43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>41</v>
       </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" t="s">
-        <v>33</v>
-      </c>
-      <c r="H26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" t="s">
-        <v>33</v>
-      </c>
-      <c r="H28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>70</v>
-      </c>
-      <c r="H30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" t="s">
-        <v>33</v>
-      </c>
-      <c r="F32" t="s">
-        <v>33</v>
-      </c>
-      <c r="H32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>61</v>
-      </c>
-      <c r="E34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>71</v>
-      </c>
-      <c r="H35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" t="s">
-        <v>33</v>
-      </c>
-      <c r="G36" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>54</v>
-      </c>
-      <c r="E37" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>53</v>
-      </c>
-      <c r="E38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>64</v>
-      </c>
-      <c r="F40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>60</v>
-      </c>
-      <c r="E41" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>65</v>
-      </c>
-      <c r="F43" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>19</v>
+      <c r="B45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" t="s">
+        <v>33</v>
       </c>
       <c r="G45" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>66</v>
       </c>
       <c r="F46" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -1524,200 +1571,391 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>72</v>
       </c>
-      <c r="H48" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" t="s">
+        <v>33</v>
+      </c>
+      <c r="I49" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>67</v>
       </c>
-      <c r="F49" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="F50" t="s">
+        <v>33</v>
+      </c>
+      <c r="G50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>68</v>
       </c>
-      <c r="F50" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="F51" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>126</v>
+      </c>
+      <c r="G52" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>73</v>
       </c>
-      <c r="H51" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="J53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" t="s">
+        <v>33</v>
+      </c>
+      <c r="E54" t="s">
+        <v>33</v>
+      </c>
+      <c r="G54" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>69</v>
       </c>
-      <c r="F52" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="F56" t="s">
+        <v>33</v>
+      </c>
+      <c r="G56" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>74</v>
       </c>
-      <c r="H53" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="J57" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>56</v>
       </c>
-      <c r="E54" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="E58" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>21</v>
       </c>
-      <c r="F55" t="s">
-        <v>33</v>
-      </c>
-      <c r="G55" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="F59" t="s">
+        <v>33</v>
+      </c>
+      <c r="I59" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>22</v>
       </c>
-      <c r="G56" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="G60" t="s">
+        <v>33</v>
+      </c>
+      <c r="I60" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>23</v>
       </c>
-      <c r="G57" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="I61" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>127</v>
+      </c>
+      <c r="G62" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>24</v>
       </c>
-      <c r="G58" t="s">
-        <v>33</v>
-      </c>
-      <c r="H58" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="I63" t="s">
+        <v>33</v>
+      </c>
+      <c r="J63" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>128</v>
+      </c>
+      <c r="G64" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>40</v>
+      </c>
+      <c r="B65" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>25</v>
       </c>
-      <c r="G59" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="I66" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>44</v>
+      </c>
+      <c r="B67" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>26</v>
       </c>
-      <c r="G60" t="s">
-        <v>33</v>
-      </c>
-      <c r="H60" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="I68" t="s">
+        <v>33</v>
+      </c>
+      <c r="J68" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>27</v>
       </c>
-      <c r="G61" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="I69" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>28</v>
       </c>
-      <c r="E62" t="s">
-        <v>33</v>
-      </c>
-      <c r="G62" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="E70" t="s">
+        <v>33</v>
+      </c>
+      <c r="I70" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>45</v>
+      </c>
+      <c r="B71" t="s">
+        <v>33</v>
+      </c>
+      <c r="C71" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>51</v>
       </c>
-      <c r="E63" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="E72" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>29</v>
+      </c>
+      <c r="B73" t="s">
+        <v>33</v>
+      </c>
+      <c r="C73" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" t="s">
+        <v>33</v>
+      </c>
+      <c r="F73" t="s">
+        <v>33</v>
+      </c>
+      <c r="I73" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>75</v>
       </c>
-      <c r="H64" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="G74" t="s">
+        <v>33</v>
+      </c>
+      <c r="J74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>57</v>
       </c>
-      <c r="E65" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="E75" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>30</v>
       </c>
-      <c r="G66" t="s">
-        <v>33</v>
-      </c>
-      <c r="H66" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="I76" t="s">
+        <v>33</v>
+      </c>
+      <c r="J76" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>129</v>
+      </c>
+      <c r="G77" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>130</v>
+      </c>
+      <c r="G78" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>31</v>
       </c>
-      <c r="G67" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="I79" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>131</v>
+      </c>
+      <c r="G80" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>38</v>
+      </c>
+      <c r="B81" t="s">
+        <v>33</v>
+      </c>
+      <c r="C81" t="s">
+        <v>33</v>
+      </c>
+      <c r="D81" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>76</v>
       </c>
-      <c r="H68" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="J82" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>59</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E83" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>32</v>
+      </c>
+      <c r="B84" t="s">
+        <v>33</v>
+      </c>
+      <c r="F84" t="s">
+        <v>33</v>
+      </c>
+      <c r="I84" t="s">
+        <v>33</v>
+      </c>
+      <c r="J84" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>132</v>
+      </c>
+      <c r="G85" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H69">
-    <sortCondition ref="B2:B69"/>
+  <sortState ref="A2:J84">
+    <sortCondition ref="A2:A84"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1731,283 +1969,283 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="9">
         <v>0</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="9">
         <v>0</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="9">
         <v>0</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12">
+      <c r="E4" s="9"/>
+      <c r="F4" s="9">
         <v>1</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="9">
         <v>1</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="9">
         <v>1</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="9">
         <v>1</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="9">
         <v>1</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12">
+      <c r="E5" s="9"/>
+      <c r="F5" s="9">
         <v>1</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="9">
         <v>1</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="9">
         <v>0.98280000000000001</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="9">
         <v>0.96589999999999998</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="9">
         <v>0.89500000000000002</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9">
         <v>1</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="9">
         <v>1</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="13">
         <v>0.83</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="13">
         <v>0.93879999999999997</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="13">
         <v>0.997</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16">
+      <c r="E8" s="13"/>
+      <c r="F8" s="13">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="13">
         <v>0</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="13">
         <v>5.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13">
         <v>0</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13">
         <v>0.91059999999999997</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="22" t="s">
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13">
         <v>0.64700000000000002</v>
       </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13">
         <v>0</v>
       </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2027,417 +2265,417 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="4" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5" t="s">
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="6">
         <v>-1.071</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="6">
         <v>0.996</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="6">
         <v>0.87329999999999997</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6">
         <v>2.0659999999999998</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="6">
         <v>1.879</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="6">
         <v>1.7370000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="6">
         <v>0.23810000000000001</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="6">
         <v>-1.4990000000000001</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="6">
         <v>-2.6619999999999999</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6">
         <v>-1.42</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="6">
         <v>-0.87150000000000005</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="6">
         <v>-1.21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="6">
         <v>-1.1890000000000001</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="6">
         <v>-2.597</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="6">
         <v>-3.1640000000000001</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6">
         <v>-3.048</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="6">
         <v>-2.1680000000000001</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="6">
         <v>-2.887</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="6">
         <v>-0.73040000000000005</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="6">
         <v>-3.274</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="6">
         <v>-3.2879999999999998</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6">
         <v>-1.2130000000000001</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="6">
         <v>0.60189999999999999</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="6">
         <v>-1.1890000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="6">
         <v>1.131</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="6">
         <v>-0.128</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="6">
         <v>-0.83589999999999998</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6">
         <v>0.31690000000000002</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="6">
         <v>1.125</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="6">
         <v>0.46039999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="6">
         <v>-1.6519999999999999</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="6">
         <v>-2.8759999999999999</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="6">
         <v>-3.1589999999999998</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6">
         <v>-2.5880000000000001</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="6">
         <v>-1.516</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="6">
         <v>-2.6139999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="6">
         <v>-1.0109999999999999</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="6">
         <v>-1.49</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="6">
         <v>-0.37040000000000001</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6">
         <v>-2.9649999999999999</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="6">
         <v>-2.3740000000000001</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="6">
         <v>-2.714</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="6">
         <v>4.4059999999999997</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="6">
         <v>2.875</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="6">
         <v>2.5310000000000001</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9">
+      <c r="E13" s="6"/>
+      <c r="F13" s="6">
         <v>7.39</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="6">
         <v>3.1030000000000002</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="6">
         <v>7.1529999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="6">
         <v>-2.0059999999999998</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="6">
         <v>-2.343</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="6">
         <v>-1.923</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9">
+      <c r="E14" s="6"/>
+      <c r="F14" s="6">
         <v>-1.4259999999999999</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="6">
         <v>1.0049999999999999</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="6">
         <v>0.34379999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="6">
         <v>-2.3140000000000001</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="6">
         <v>-2.74</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="6">
         <v>-2.323</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9">
+      <c r="E15" s="6"/>
+      <c r="F15" s="6">
         <v>-4.3120000000000003</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="6">
         <v>-2.085</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="6">
         <v>-0.77890000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="6">
         <v>-1.431</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="6">
         <v>-2.6030000000000002</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="6">
         <v>-1.7230000000000001</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9">
+      <c r="E16" s="6"/>
+      <c r="F16" s="6">
         <v>4.2729999999999997</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="6">
         <v>3.8959999999999999</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="6">
         <v>1.62</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="6">
         <v>0.1847</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="6">
         <v>-0.25219999999999998</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="6">
         <v>0.1709</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9">
+      <c r="E17" s="6"/>
+      <c r="F17" s="6">
         <v>-0.43959999999999999</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="6">
         <v>2.4670000000000001</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="6">
         <v>2.2120000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="6">
         <v>-1.659</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="6">
         <v>-2.1960000000000002</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="6">
         <v>-1.5509999999999999</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9">
+      <c r="E18" s="6"/>
+      <c r="F18" s="6">
         <v>-4.3739999999999997</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="6">
         <v>-1.5660000000000001</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="6">
         <v>1.1319999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="18" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="6">
         <v>-1.165</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="6">
         <v>-2.8940000000000001</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="6">
         <v>-1.794</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9">
+      <c r="E19" s="6"/>
+      <c r="F19" s="6">
         <v>2.9710000000000001</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="6">
         <v>2.6880000000000002</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="6">
         <v>3.17</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2447,29 +2685,29 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="20" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="20" t="s">
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2515,373 +2753,541 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.83203125" customWidth="1"/>
+    <col min="1" max="1" width="27.875" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" customWidth="1"/>
+    <col min="8" max="8" width="11.125" customWidth="1"/>
+    <col min="9" max="9" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.125" customWidth="1"/>
+    <col min="12" max="12" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="J2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="L2" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>103</v>
       </c>
       <c r="B5">
         <v>-2.02</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="6">
         <v>-2.33</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="6">
         <v>-1.89</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6">
         <v>-2.34</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="11">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6">
+        <v>-0.49780000000000002</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="8">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
+      <c r="J6" s="8">
+        <v>-0.43390000000000001</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="M6">
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="11">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6">
+        <v>1.83E-2</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="8">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J7" s="8">
+        <v>4.4299999999999999E-2</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="M7">
+        <v>2.2549000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>103</v>
       </c>
       <c r="B11">
         <v>-1.32</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="6">
         <v>-1.76</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="6">
         <v>-1.55</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9">
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="I11" s="6">
         <v>-2.09</v>
       </c>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="M11" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>104</v>
       </c>
       <c r="B12">
         <v>-4.8517000000000001</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6">
         <v>-3.8800000000000001E-2</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+      <c r="G12" s="6">
+        <v>-0.32890000000000003</v>
+      </c>
+      <c r="H12" s="6">
+        <v>-2.8448000000000002</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6">
+        <v>-0.3231</v>
+      </c>
+      <c r="K12" s="6"/>
+      <c r="M12">
+        <v>0.16719999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>108</v>
       </c>
       <c r="B13">
         <v>1.7838000000000001</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6">
         <v>4.3E-3</v>
       </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G13" s="6">
+        <v>3.95E-2</v>
+      </c>
+      <c r="H13" s="6">
+        <v>2.1718999999999999</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6">
+        <v>7.0599999999999996E-2</v>
+      </c>
+      <c r="K13" s="6"/>
+      <c r="M13">
+        <v>1.2103999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B17">
         <v>-1.41</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6">
+        <v>-2.39</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="M17" s="19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6">
         <v>-20.341200000000001</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="6">
+        <v>-0.37740000000000001</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6">
         <v>22.924900000000001</v>
       </c>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J18" s="6">
+        <v>-0.30120000000000002</v>
+      </c>
+      <c r="K18" s="6"/>
+      <c r="M18">
+        <v>0.13650000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6">
         <v>7.6893000000000002</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="6">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6">
         <v>5.3178999999999998</v>
       </c>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J19" s="6">
+        <v>0.14929999999999999</v>
+      </c>
+      <c r="K19" s="6"/>
+      <c r="M19">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>103</v>
       </c>
       <c r="B23">
         <v>-2.2599999999999998</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6">
         <v>-1.88</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9">
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6">
+        <v>-11.88</v>
+      </c>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6">
+        <v>-1.64</v>
+      </c>
+      <c r="K23" s="6">
         <v>-2.35</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M23" s="19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="6">
         <v>-95.295599999999993</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9">
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6">
         <v>-18.849699999999999</v>
       </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G24" s="6">
+        <v>-0.32829999999999998</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6">
+        <v>-0.40039999999999998</v>
+      </c>
+      <c r="K24" s="6"/>
+      <c r="M24">
+        <v>3.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>108</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="6">
         <v>31.206499999999998</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9">
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6">
         <v>9.2842000000000002</v>
       </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
+      <c r="G25" s="6">
+        <v>3.3700000000000001E-2</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6">
+        <v>0.31790000000000002</v>
+      </c>
+      <c r="K25" s="6"/>
+      <c r="M25">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>109</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A27:K27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/documentation/PanelSummaries.xlsx
+++ b/documentation/PanelSummaries.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colin\Desktop\UrbanizationCauseConsequence\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caw6/Desktop/UrbanizationCauseConsequence/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6285" yWindow="465" windowWidth="17595" windowHeight="19485" tabRatio="500"/>
+    <workbookView xWindow="15800" yWindow="460" windowWidth="17600" windowHeight="19480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Panels" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Cointegration Tests" sheetId="3" r:id="rId3"/>
     <sheet name="Causality Tests" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="137">
   <si>
     <t>Country</t>
   </si>
@@ -476,11 +476,23 @@
   <si>
     <t>Zambia</t>
   </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Todo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -727,7 +739,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1035,20 +1047,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J85"/>
+  <dimension ref="A1:J89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G85" sqref="G85"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.875" customWidth="1"/>
-    <col min="9" max="9" width="10.875" customWidth="1"/>
+    <col min="4" max="5" width="10.83203125" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1099,21 +1111,21 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
         <v>33</v>
       </c>
-      <c r="I3" t="s">
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="F4" t="s">
         <v>33</v>
@@ -1124,26 +1136,35 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
         <v>33</v>
       </c>
-      <c r="J6" t="s">
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
         <v>33</v>
@@ -1155,75 +1176,75 @@
         <v>33</v>
       </c>
       <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>118</v>
-      </c>
-      <c r="G8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>70</v>
-      </c>
-      <c r="J12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>69</v>
+      </c>
+      <c r="F14" t="s">
+        <v>33</v>
       </c>
       <c r="G14" t="s">
         <v>33</v>
@@ -1231,28 +1252,46 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>121</v>
-      </c>
-      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>120</v>
-      </c>
-      <c r="G16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
         <v>33</v>
       </c>
       <c r="F17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" t="s">
         <v>33</v>
       </c>
       <c r="J17" t="s">
@@ -1261,7 +1300,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
       </c>
       <c r="I18" t="s">
         <v>33</v>
@@ -1269,24 +1311,24 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
       </c>
       <c r="E20" t="s">
         <v>33</v>
@@ -1294,28 +1336,40 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
         <v>33</v>
       </c>
       <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" t="s">
         <v>33</v>
       </c>
       <c r="I23" t="s">
@@ -1324,29 +1378,23 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>71</v>
-      </c>
-      <c r="J24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J25" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I26" t="s">
         <v>33</v>
@@ -1354,74 +1402,59 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" t="s">
+        <v>119</v>
+      </c>
+      <c r="G27" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28" t="s">
+        <v>121</v>
+      </c>
+      <c r="G28" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" t="s">
+        <v>120</v>
+      </c>
+      <c r="G29" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>122</v>
-      </c>
-      <c r="G31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E32" t="s">
         <v>33</v>
@@ -1429,85 +1462,100 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>64</v>
-      </c>
-      <c r="F34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>123</v>
-      </c>
-      <c r="G35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="I35" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>60</v>
-      </c>
-      <c r="E36" t="s">
+        <v>71</v>
+      </c>
+      <c r="J36" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>65</v>
-      </c>
-      <c r="G37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>17</v>
-      </c>
-      <c r="I38" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" t="s">
+        <v>133</v>
+      </c>
+      <c r="H39" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>124</v>
-      </c>
-      <c r="G40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>65</v>
-      </c>
-      <c r="F41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G42" t="s">
         <v>33</v>
@@ -1515,15 +1563,15 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>18</v>
-      </c>
-      <c r="I43" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I44" t="s">
         <v>33</v>
@@ -1531,19 +1579,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>41</v>
-      </c>
-      <c r="B45" t="s">
-        <v>33</v>
-      </c>
-      <c r="C45" t="s">
-        <v>33</v>
-      </c>
-      <c r="D45" t="s">
-        <v>33</v>
-      </c>
-      <c r="E45" t="s">
-        <v>33</v>
+        <v>123</v>
       </c>
       <c r="G45" t="s">
         <v>33</v>
@@ -1551,51 +1587,48 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>66</v>
-      </c>
-      <c r="F46" t="s">
-        <v>33</v>
-      </c>
-      <c r="G46" t="s">
+        <v>60</v>
+      </c>
+      <c r="E46" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>52</v>
-      </c>
-      <c r="E47" t="s">
-        <v>33</v>
-      </c>
-      <c r="F47" t="s">
+        <v>65</v>
+      </c>
+      <c r="G47" t="s">
+        <v>33</v>
+      </c>
+      <c r="H47" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>72</v>
-      </c>
-      <c r="J48" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
         <v>33</v>
       </c>
-      <c r="I49" t="s">
+      <c r="C49" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>67</v>
-      </c>
-      <c r="F50" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="G50" t="s">
         <v>33</v>
@@ -1603,36 +1636,39 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>68</v>
-      </c>
-      <c r="F51" t="s">
+        <v>125</v>
+      </c>
+      <c r="G51" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>126</v>
-      </c>
-      <c r="G52" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>73</v>
-      </c>
-      <c r="J53" t="s">
+        <v>19</v>
+      </c>
+      <c r="I53" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B54" t="s">
         <v>33</v>
       </c>
       <c r="C54" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" t="s">
         <v>33</v>
       </c>
       <c r="E54" t="s">
@@ -1644,132 +1680,132 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>46</v>
-      </c>
-      <c r="B55" t="s">
-        <v>33</v>
-      </c>
-      <c r="C55" t="s">
-        <v>33</v>
-      </c>
-      <c r="D55" t="s">
+        <v>72</v>
+      </c>
+      <c r="J55" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>69</v>
-      </c>
-      <c r="F56" t="s">
-        <v>33</v>
-      </c>
-      <c r="G56" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" t="s">
+        <v>33</v>
+      </c>
+      <c r="I56" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>74</v>
-      </c>
-      <c r="J57" t="s">
+        <v>126</v>
+      </c>
+      <c r="G57" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>56</v>
-      </c>
-      <c r="E58" t="s">
+        <v>73</v>
+      </c>
+      <c r="J58" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>21</v>
-      </c>
-      <c r="F59" t="s">
-        <v>33</v>
-      </c>
-      <c r="I59" t="s">
+        <v>48</v>
+      </c>
+      <c r="B59" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59" t="s">
+        <v>33</v>
+      </c>
+      <c r="G59" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" t="s">
-        <v>33</v>
-      </c>
-      <c r="I60" t="s">
+        <v>46</v>
+      </c>
+      <c r="B60" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>23</v>
-      </c>
-      <c r="I61" t="s">
+        <v>74</v>
+      </c>
+      <c r="J61" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>127</v>
-      </c>
-      <c r="G62" t="s">
+        <v>56</v>
+      </c>
+      <c r="E62" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>24</v>
-      </c>
-      <c r="I63" t="s">
-        <v>33</v>
-      </c>
-      <c r="J63" t="s">
+        <v>134</v>
+      </c>
+      <c r="H63" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="G64" t="s">
+        <v>33</v>
+      </c>
+      <c r="I64" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>40</v>
-      </c>
-      <c r="B65" t="s">
-        <v>33</v>
-      </c>
-      <c r="C65" t="s">
+        <v>23</v>
+      </c>
+      <c r="I65" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>25</v>
-      </c>
-      <c r="I66" t="s">
+        <v>127</v>
+      </c>
+      <c r="G66" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>44</v>
-      </c>
-      <c r="B67" t="s">
+        <v>135</v>
+      </c>
+      <c r="H67" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I68" t="s">
         <v>33</v>
@@ -1780,182 +1816,208 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>27</v>
-      </c>
-      <c r="I69" t="s">
+        <v>128</v>
+      </c>
+      <c r="G69" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>28</v>
-      </c>
-      <c r="E70" t="s">
-        <v>33</v>
-      </c>
-      <c r="I70" t="s">
+        <v>40</v>
+      </c>
+      <c r="B70" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>25</v>
+      </c>
+      <c r="I71" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>44</v>
+      </c>
+      <c r="B72" t="s">
+        <v>33</v>
+      </c>
+      <c r="H72" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>26</v>
+      </c>
+      <c r="I73" t="s">
+        <v>33</v>
+      </c>
+      <c r="J73" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>27</v>
+      </c>
+      <c r="I74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>28</v>
+      </c>
+      <c r="E75" t="s">
+        <v>33</v>
+      </c>
+      <c r="I75" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>45</v>
       </c>
-      <c r="B71" t="s">
-        <v>33</v>
-      </c>
-      <c r="C71" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="B76" t="s">
+        <v>33</v>
+      </c>
+      <c r="C76" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>51</v>
       </c>
-      <c r="E72" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>29</v>
-      </c>
-      <c r="B73" t="s">
-        <v>33</v>
-      </c>
-      <c r="C73" t="s">
-        <v>33</v>
-      </c>
-      <c r="D73" t="s">
-        <v>33</v>
-      </c>
-      <c r="F73" t="s">
-        <v>33</v>
-      </c>
-      <c r="I73" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="E77" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>75</v>
       </c>
-      <c r="G74" t="s">
-        <v>33</v>
-      </c>
-      <c r="J74" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="G78" t="s">
+        <v>33</v>
+      </c>
+      <c r="J78" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>57</v>
       </c>
-      <c r="E75" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="E79" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>136</v>
+      </c>
+      <c r="H80" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>30</v>
       </c>
-      <c r="I76" t="s">
-        <v>33</v>
-      </c>
-      <c r="J76" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="I81" t="s">
+        <v>33</v>
+      </c>
+      <c r="J81" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>129</v>
       </c>
-      <c r="G77" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="G82" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>130</v>
       </c>
-      <c r="G78" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="G83" t="s">
+        <v>33</v>
+      </c>
+      <c r="H83" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>31</v>
       </c>
-      <c r="I79" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="I84" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>131</v>
       </c>
-      <c r="G80" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="G85" t="s">
+        <v>33</v>
+      </c>
+      <c r="H85" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>38</v>
       </c>
-      <c r="B81" t="s">
-        <v>33</v>
-      </c>
-      <c r="C81" t="s">
-        <v>33</v>
-      </c>
-      <c r="D81" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="B86" t="s">
+        <v>33</v>
+      </c>
+      <c r="C86" t="s">
+        <v>33</v>
+      </c>
+      <c r="D86" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>76</v>
       </c>
-      <c r="J82" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="J87" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>59</v>
       </c>
-      <c r="E83" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>32</v>
-      </c>
-      <c r="B84" t="s">
-        <v>33</v>
-      </c>
-      <c r="F84" t="s">
-        <v>33</v>
-      </c>
-      <c r="I84" t="s">
-        <v>33</v>
-      </c>
-      <c r="J84" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="E88" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>132</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G89" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J84">
-    <sortCondition ref="A2:A84"/>
+  <sortState ref="A2:J89">
+    <sortCondition ref="F2:F89"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1969,11 +2031,11 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2265,13 +2327,13 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -2755,21 +2817,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.875" customWidth="1"/>
+    <col min="1" max="1" width="27.83203125" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" customWidth="1"/>
-    <col min="8" max="8" width="11.125" customWidth="1"/>
-    <col min="9" max="9" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.125" customWidth="1"/>
-    <col min="12" max="12" width="13.375" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.1640625" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">

--- a/documentation/PanelSummaries.xlsx
+++ b/documentation/PanelSummaries.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15800" yWindow="460" windowWidth="17600" windowHeight="19480" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="20780" yWindow="480" windowWidth="17600" windowHeight="19480" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Panels" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="139">
   <si>
     <t>Country</t>
   </si>
@@ -487,6 +487,12 @@
   </si>
   <si>
     <t>Todo</t>
+  </si>
+  <si>
+    <t>lgGDP-PC LCU lgPctUrb</t>
+  </si>
+  <si>
+    <t>lgGDP-PC LCU lg PctUrb</t>
   </si>
 </sst>
 </file>
@@ -520,7 +526,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -568,11 +574,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -615,6 +632,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -634,6 +654,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -739,7 +765,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1047,23 +1073,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J89"/>
+  <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1071,107 +1098,107 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>111</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>112</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>33</v>
-      </c>
       <c r="G2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>55</v>
       </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
       <c r="F3" t="s">
         <v>33</v>
       </c>
-      <c r="J3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>63</v>
       </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>58</v>
       </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
       <c r="F5" t="s">
         <v>33</v>
       </c>
-      <c r="J5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
       <c r="G6" t="s">
         <v>33</v>
       </c>
-      <c r="I6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>43</v>
       </c>
       <c r="B7" t="s">
         <v>33</v>
       </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
       <c r="D7" t="s">
         <v>33</v>
       </c>
@@ -1181,286 +1208,289 @@
       <c r="F7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>64</v>
       </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>65</v>
       </c>
-      <c r="F9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>66</v>
       </c>
-      <c r="F10" t="s">
-        <v>33</v>
-      </c>
       <c r="G10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>52</v>
       </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
       <c r="F11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>67</v>
       </c>
-      <c r="F12" t="s">
-        <v>33</v>
-      </c>
       <c r="G12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>68</v>
       </c>
-      <c r="F13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>69</v>
       </c>
-      <c r="F14" t="s">
-        <v>33</v>
-      </c>
       <c r="G14" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="F15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>29</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
       <c r="D16" t="s">
         <v>33</v>
       </c>
-      <c r="F16" t="s">
-        <v>33</v>
-      </c>
-      <c r="I16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="F17" t="s">
-        <v>33</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="G17" t="s">
         <v>33</v>
       </c>
       <c r="J17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="E18" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>10</v>
       </c>
-      <c r="I19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>39</v>
       </c>
       <c r="B20" t="s">
         <v>33</v>
       </c>
-      <c r="C20" t="s">
-        <v>33</v>
-      </c>
       <c r="D20" t="s">
         <v>33</v>
       </c>
       <c r="E20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>118</v>
       </c>
-      <c r="G21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>37</v>
       </c>
       <c r="B22" t="s">
         <v>33</v>
       </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
       <c r="D22" t="s">
         <v>33</v>
       </c>
-      <c r="G22" t="s">
+      <c r="E22" t="s">
         <v>33</v>
       </c>
       <c r="H22" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>11</v>
       </c>
       <c r="B23" t="s">
         <v>33</v>
       </c>
-      <c r="D23" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>62</v>
       </c>
-      <c r="D24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>70</v>
       </c>
-      <c r="J25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>12</v>
       </c>
-      <c r="I26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>119</v>
       </c>
-      <c r="G27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>121</v>
       </c>
-      <c r="G28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>120</v>
       </c>
-      <c r="G29" t="s">
-        <v>33</v>
-      </c>
       <c r="H29" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>13</v>
       </c>
-      <c r="I30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>34</v>
       </c>
       <c r="B31" t="s">
         <v>33</v>
       </c>
-      <c r="C31" t="s">
-        <v>33</v>
-      </c>
       <c r="D31" t="s">
         <v>33</v>
       </c>
       <c r="E31" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>61</v>
       </c>
-      <c r="E32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1468,37 +1498,37 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>50</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
       </c>
-      <c r="C34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>14</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
       </c>
-      <c r="I35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>71</v>
       </c>
-      <c r="J36" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -1506,518 +1536,518 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>54</v>
       </c>
-      <c r="E38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>133</v>
       </c>
-      <c r="H39" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>35</v>
       </c>
       <c r="B40" t="s">
         <v>33</v>
       </c>
-      <c r="C40" t="s">
-        <v>33</v>
-      </c>
       <c r="D40" t="s">
         <v>33</v>
       </c>
       <c r="E40" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>47</v>
       </c>
       <c r="B41" t="s">
         <v>33</v>
       </c>
-      <c r="C41" t="s">
-        <v>33</v>
-      </c>
       <c r="D41" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>122</v>
       </c>
-      <c r="G42" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>53</v>
       </c>
-      <c r="E43" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>16</v>
       </c>
-      <c r="I44" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>123</v>
       </c>
-      <c r="G45" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>60</v>
       </c>
-      <c r="E46" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>65</v>
       </c>
-      <c r="G47" t="s">
-        <v>33</v>
-      </c>
       <c r="H47" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>17</v>
       </c>
-      <c r="I48" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>49</v>
       </c>
       <c r="B49" t="s">
         <v>33</v>
       </c>
-      <c r="C49" t="s">
-        <v>33</v>
-      </c>
       <c r="D49" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>124</v>
       </c>
-      <c r="G50" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>125</v>
       </c>
-      <c r="G51" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H51" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>18</v>
       </c>
-      <c r="I52" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J52" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>19</v>
       </c>
-      <c r="I53" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>41</v>
       </c>
       <c r="B54" t="s">
         <v>33</v>
       </c>
-      <c r="C54" t="s">
-        <v>33</v>
-      </c>
       <c r="D54" t="s">
         <v>33</v>
       </c>
       <c r="E54" t="s">
         <v>33</v>
       </c>
-      <c r="G54" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
+        <v>33</v>
+      </c>
+      <c r="H54" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>72</v>
       </c>
-      <c r="J55" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K55" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>20</v>
       </c>
       <c r="B56" t="s">
         <v>33</v>
       </c>
-      <c r="I56" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J56" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>126</v>
       </c>
-      <c r="G57" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H57" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>73</v>
       </c>
-      <c r="J58" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K58" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>48</v>
       </c>
       <c r="B59" t="s">
         <v>33</v>
       </c>
-      <c r="C59" t="s">
-        <v>33</v>
-      </c>
-      <c r="E59" t="s">
-        <v>33</v>
-      </c>
-      <c r="G59" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>33</v>
+      </c>
+      <c r="F59" t="s">
+        <v>33</v>
+      </c>
+      <c r="H59" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>46</v>
       </c>
       <c r="B60" t="s">
         <v>33</v>
       </c>
-      <c r="C60" t="s">
-        <v>33</v>
-      </c>
       <c r="D60" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>74</v>
       </c>
-      <c r="J61" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K61" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>56</v>
       </c>
-      <c r="E62" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F62" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>134</v>
       </c>
-      <c r="H63" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I63" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>22</v>
       </c>
-      <c r="G64" t="s">
-        <v>33</v>
-      </c>
-      <c r="I64" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H64" t="s">
+        <v>33</v>
+      </c>
+      <c r="J64" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>23</v>
       </c>
-      <c r="I65" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J65" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>127</v>
       </c>
-      <c r="G66" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H66" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>135</v>
       </c>
-      <c r="H67" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I67" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>24</v>
       </c>
-      <c r="I68" t="s">
-        <v>33</v>
-      </c>
       <c r="J68" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K68" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>128</v>
       </c>
-      <c r="G69" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H69" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>40</v>
       </c>
       <c r="B70" t="s">
         <v>33</v>
       </c>
-      <c r="C70" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>25</v>
       </c>
-      <c r="I71" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J71" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>44</v>
       </c>
       <c r="B72" t="s">
         <v>33</v>
       </c>
-      <c r="H72" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I72" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>26</v>
       </c>
-      <c r="I73" t="s">
-        <v>33</v>
-      </c>
       <c r="J73" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K73" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>27</v>
       </c>
-      <c r="I74" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>28</v>
       </c>
-      <c r="E75" t="s">
-        <v>33</v>
-      </c>
-      <c r="I75" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F75" t="s">
+        <v>33</v>
+      </c>
+      <c r="J75" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>45</v>
       </c>
       <c r="B76" t="s">
         <v>33</v>
       </c>
-      <c r="C76" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D76" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>51</v>
       </c>
-      <c r="E77" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F77" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>75</v>
       </c>
-      <c r="G78" t="s">
-        <v>33</v>
-      </c>
-      <c r="J78" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H78" t="s">
+        <v>33</v>
+      </c>
+      <c r="K78" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>57</v>
       </c>
-      <c r="E79" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F79" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>136</v>
       </c>
-      <c r="H80" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I80" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>30</v>
       </c>
-      <c r="I81" t="s">
-        <v>33</v>
-      </c>
       <c r="J81" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K81" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>129</v>
       </c>
-      <c r="G82" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H82" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>130</v>
       </c>
-      <c r="G83" t="s">
-        <v>33</v>
-      </c>
       <c r="H83" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I83" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>31</v>
       </c>
-      <c r="I84" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J84" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>131</v>
       </c>
-      <c r="G85" t="s">
-        <v>33</v>
-      </c>
       <c r="H85" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I85" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>38</v>
       </c>
       <c r="B86" t="s">
         <v>33</v>
       </c>
-      <c r="C86" t="s">
-        <v>33</v>
-      </c>
       <c r="D86" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E86" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>76</v>
       </c>
-      <c r="J87" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K87" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>59</v>
       </c>
-      <c r="E88" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F88" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>132</v>
       </c>
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J89">
-    <sortCondition ref="F2:F89"/>
+  <sortState ref="A2:L89">
+    <sortCondition ref="G2:G89"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2025,69 +2055,74 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
+      <c r="C3" s="20"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>87</v>
       </c>
@@ -2100,42 +2135,48 @@
       <c r="D4" s="9">
         <v>0</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9">
-        <v>1</v>
-      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9"/>
       <c r="G4" s="9">
         <v>1</v>
       </c>
       <c r="H4" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B5" s="9">
         <v>1</v>
       </c>
-      <c r="C5" s="9">
-        <v>1</v>
+      <c r="C5">
+        <v>0.74790000000000001</v>
       </c>
       <c r="D5" s="9">
         <v>1</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9">
+      <c r="E5" s="9">
         <v>1</v>
       </c>
+      <c r="F5" s="9"/>
       <c r="G5" s="9">
         <v>1</v>
       </c>
       <c r="H5" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>89</v>
       </c>
@@ -2146,56 +2187,63 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>87</v>
       </c>
       <c r="B7" s="9">
         <v>0.98280000000000001</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="13">
+        <v>0.84970000000000001</v>
+      </c>
+      <c r="D7" s="9">
         <v>0.96589999999999998</v>
       </c>
-      <c r="D7" s="9">
+      <c r="E7" s="9">
         <v>0.89500000000000002</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9">
-        <v>1</v>
-      </c>
+      <c r="F7" s="9"/>
       <c r="G7" s="9">
         <v>1</v>
       </c>
       <c r="H7" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>88</v>
       </c>
       <c r="B8" s="13">
         <v>0.83</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="28">
+        <v>0</v>
+      </c>
+      <c r="D8" s="13">
         <v>0.93879999999999997</v>
       </c>
-      <c r="D8" s="13">
+      <c r="E8" s="13">
         <v>0.997</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13">
+      <c r="F8" s="13"/>
+      <c r="G8" s="13">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="G8" s="13">
+      <c r="H8" s="13">
         <v>0</v>
       </c>
-      <c r="H8" s="13">
+      <c r="I8" s="13">
         <v>5.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>99</v>
       </c>
@@ -2206,8 +2254,9 @@
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>87</v>
       </c>
@@ -2215,13 +2264,14 @@
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
-      <c r="F11" s="13">
+      <c r="F11" s="13"/>
+      <c r="G11" s="13">
         <v>0</v>
       </c>
-      <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>88</v>
       </c>
@@ -2229,13 +2279,14 @@
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
-      <c r="F12" s="13">
+      <c r="F12" s="13"/>
+      <c r="G12" s="13">
         <v>0.91059999999999997</v>
       </c>
-      <c r="G12" s="13"/>
       <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>89</v>
       </c>
@@ -2246,8 +2297,9 @@
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>87</v>
       </c>
@@ -2255,13 +2307,14 @@
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
-      <c r="F14" s="13">
+      <c r="F14" s="13"/>
+      <c r="G14" s="13">
         <v>0.64700000000000002</v>
       </c>
-      <c r="G14" s="13"/>
       <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>88</v>
       </c>
@@ -2269,13 +2322,14 @@
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
-      <c r="F15" s="13">
+      <c r="F15" s="13"/>
+      <c r="G15" s="13">
         <v>0</v>
       </c>
-      <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -2284,36 +2338,39 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A18:I18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2321,36 +2378,37 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
+    <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="23" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -2365,21 +2423,24 @@
         <v>3</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>79</v>
       </c>
@@ -2394,16 +2455,19 @@
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6">
+        <v>5.3230000000000004</v>
+      </c>
+      <c r="G4" s="6">
         <v>2.0659999999999998</v>
       </c>
-      <c r="G4" s="6">
+      <c r="H4" s="6">
         <v>1.879</v>
       </c>
-      <c r="H4" s="6">
+      <c r="I4" s="6">
         <v>1.7370000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>80</v>
       </c>
@@ -2418,16 +2482,19 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6">
+        <v>-6.0119999999999996</v>
+      </c>
+      <c r="G5" s="6">
         <v>-1.42</v>
       </c>
-      <c r="G5" s="6">
+      <c r="H5" s="6">
         <v>-0.87150000000000005</v>
       </c>
-      <c r="H5" s="6">
+      <c r="I5" s="6">
         <v>-1.21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>84</v>
       </c>
@@ -2442,16 +2509,19 @@
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6">
+        <v>-4.1829999999999998</v>
+      </c>
+      <c r="G6" s="6">
         <v>-3.048</v>
       </c>
-      <c r="G6" s="6">
+      <c r="H6" s="6">
         <v>-2.1680000000000001</v>
       </c>
-      <c r="H6" s="6">
+      <c r="I6" s="6">
         <v>-2.887</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>81</v>
       </c>
@@ -2466,16 +2536,19 @@
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6">
+        <v>-4.258</v>
+      </c>
+      <c r="G7" s="6">
         <v>-1.2130000000000001</v>
       </c>
-      <c r="G7" s="6">
+      <c r="H7" s="6">
         <v>0.60189999999999999</v>
       </c>
-      <c r="H7" s="6">
+      <c r="I7" s="6">
         <v>-1.1890000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>82</v>
       </c>
@@ -2490,16 +2563,19 @@
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6">
+        <v>-2.2770000000000001</v>
+      </c>
+      <c r="G8" s="6">
         <v>0.31690000000000002</v>
       </c>
-      <c r="G8" s="6">
+      <c r="H8" s="6">
         <v>1.125</v>
       </c>
-      <c r="H8" s="6">
+      <c r="I8" s="6">
         <v>0.46039999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>85</v>
       </c>
@@ -2514,16 +2590,19 @@
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6">
+        <v>-3.2480000000000002</v>
+      </c>
+      <c r="G9" s="6">
         <v>-2.5880000000000001</v>
       </c>
-      <c r="G9" s="6">
+      <c r="H9" s="6">
         <v>-1.516</v>
       </c>
-      <c r="H9" s="6">
+      <c r="I9" s="6">
         <v>-2.6139999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>83</v>
       </c>
@@ -2538,16 +2617,19 @@
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6">
+        <v>-3.9569999999999999</v>
+      </c>
+      <c r="G10" s="6">
         <v>-2.9649999999999999</v>
       </c>
-      <c r="G10" s="6">
+      <c r="H10" s="6">
         <v>-2.3740000000000001</v>
       </c>
-      <c r="H10" s="6">
+      <c r="I10" s="6">
         <v>-2.714</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2556,8 +2638,9 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>86</v>
       </c>
@@ -2568,8 +2651,9 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>79</v>
       </c>
@@ -2584,16 +2668,19 @@
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6">
+        <v>2.823</v>
+      </c>
+      <c r="G13" s="6">
         <v>7.39</v>
       </c>
-      <c r="G13" s="6">
+      <c r="H13" s="6">
         <v>3.1030000000000002</v>
       </c>
-      <c r="H13" s="6">
+      <c r="I13" s="6">
         <v>7.1529999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>80</v>
       </c>
@@ -2608,16 +2695,19 @@
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6">
+        <v>-2.0070000000000001</v>
+      </c>
+      <c r="G14" s="6">
         <v>-1.4259999999999999</v>
       </c>
-      <c r="G14" s="6">
+      <c r="H14" s="6">
         <v>1.0049999999999999</v>
       </c>
-      <c r="H14" s="6">
+      <c r="I14" s="6">
         <v>0.34379999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>84</v>
       </c>
@@ -2632,16 +2722,19 @@
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6">
+        <v>-1.272</v>
+      </c>
+      <c r="G15" s="6">
         <v>-4.3120000000000003</v>
       </c>
-      <c r="G15" s="6">
+      <c r="H15" s="6">
         <v>-2.085</v>
       </c>
-      <c r="H15" s="6">
+      <c r="I15" s="6">
         <v>-0.77890000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>81</v>
       </c>
@@ -2656,16 +2749,19 @@
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6">
+        <v>-0.25240000000000001</v>
+      </c>
+      <c r="G16" s="6">
         <v>4.2729999999999997</v>
       </c>
-      <c r="G16" s="6">
+      <c r="H16" s="6">
         <v>3.8959999999999999</v>
       </c>
-      <c r="H16" s="6">
+      <c r="I16" s="6">
         <v>1.62</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>82</v>
       </c>
@@ -2680,16 +2776,19 @@
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6">
+        <v>-1.319</v>
+      </c>
+      <c r="G17" s="6">
         <v>-0.43959999999999999</v>
       </c>
-      <c r="G17" s="6">
+      <c r="H17" s="6">
         <v>2.4670000000000001</v>
       </c>
-      <c r="H17" s="6">
+      <c r="I17" s="6">
         <v>2.2120000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>85</v>
       </c>
@@ -2704,16 +2803,19 @@
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6">
+        <v>-1.79</v>
+      </c>
+      <c r="G18" s="6">
         <v>-4.3739999999999997</v>
       </c>
-      <c r="G18" s="6">
+      <c r="H18" s="6">
         <v>-1.5660000000000001</v>
       </c>
-      <c r="H18" s="6">
+      <c r="I18" s="6">
         <v>1.1319999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>83</v>
       </c>
@@ -2728,16 +2830,19 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6">
+        <v>-0.59119999999999995</v>
+      </c>
+      <c r="G19" s="6">
         <v>2.9710000000000001</v>
       </c>
-      <c r="G19" s="6">
+      <c r="H19" s="6">
         <v>2.6880000000000002</v>
       </c>
-      <c r="H19" s="6">
+      <c r="I19" s="6">
         <v>3.17</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2746,39 +2851,42 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A21:I21"/>
     <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A21:H21"/>
   </mergeCells>
-  <conditionalFormatting sqref="B5:H10">
+  <conditionalFormatting sqref="B5:I10">
     <cfRule type="cellIs" dxfId="6" priority="5" operator="lessThan">
       <formula>-1.64</formula>
     </cfRule>
@@ -2786,7 +2894,7 @@
       <formula>-1.64</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:H4">
+  <conditionalFormatting sqref="B4:I4">
     <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
       <formula>1.64</formula>
     </cfRule>
@@ -2794,17 +2902,17 @@
       <formula>1.64</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:H4">
+  <conditionalFormatting sqref="B3:I4 B13:F13">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>1.64</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14:H19">
+  <conditionalFormatting sqref="B14:I19">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>-1.64</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:H13">
+  <conditionalFormatting sqref="G13:I13">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>1.64</formula>
     </cfRule>
@@ -2835,17 +2943,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -3327,19 +3435,19 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">

--- a/documentation/PanelSummaries.xlsx
+++ b/documentation/PanelSummaries.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="20780" yWindow="480" windowWidth="17600" windowHeight="19480" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="20780" yWindow="480" windowWidth="17600" windowHeight="19480" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Panels" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="144">
   <si>
     <t>Country</t>
   </si>
@@ -493,6 +493,21 @@
   </si>
   <si>
     <t>lgGDP-PC LCU lg PctUrb</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Senegal</t>
   </si>
 </sst>
 </file>
@@ -635,6 +650,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -653,13 +671,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -765,7 +780,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1073,24 +1088,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K89"/>
+  <dimension ref="A1:L93"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1122,10 +1137,13 @@
         <v>5</v>
       </c>
       <c r="K1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1138,721 +1156,745 @@
       <c r="J2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>55</v>
       </c>
-      <c r="F3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>63</v>
       </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>119</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>120</v>
+      </c>
+      <c r="H14" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>58</v>
       </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="F16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>121</v>
+      </c>
+      <c r="H17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>139</v>
+      </c>
+      <c r="I22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="L25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>15</v>
       </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="G27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>43</v>
       </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>133</v>
+      </c>
+      <c r="I31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>122</v>
+      </c>
+      <c r="H32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" t="s">
+        <v>33</v>
+      </c>
+      <c r="J35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>64</v>
       </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="G36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>123</v>
+      </c>
+      <c r="H38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>140</v>
+      </c>
+      <c r="I40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>141</v>
+      </c>
+      <c r="I42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>65</v>
       </c>
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="G43" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" t="s">
+        <v>33</v>
+      </c>
+      <c r="I43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>124</v>
+      </c>
+      <c r="H44" t="s">
+        <v>33</v>
+      </c>
+      <c r="I44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" t="s">
+        <v>33</v>
+      </c>
+      <c r="J45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>19</v>
+      </c>
+      <c r="J46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>125</v>
+      </c>
+      <c r="H47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" t="s">
+        <v>33</v>
+      </c>
+      <c r="F48" t="s">
+        <v>33</v>
+      </c>
+      <c r="H48" t="s">
+        <v>33</v>
+      </c>
+      <c r="I48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>66</v>
       </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="G49" t="s">
+        <v>33</v>
+      </c>
+      <c r="H49" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>52</v>
       </c>
-      <c r="F11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="F50" t="s">
+        <v>33</v>
+      </c>
+      <c r="G50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>72</v>
+      </c>
+      <c r="L51" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" t="s">
+        <v>33</v>
+      </c>
+      <c r="I52" t="s">
+        <v>33</v>
+      </c>
+      <c r="J52" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>67</v>
       </c>
-      <c r="G12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="G53" t="s">
+        <v>33</v>
+      </c>
+      <c r="H53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>126</v>
+      </c>
+      <c r="H54" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>68</v>
       </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="G55" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>73</v>
+      </c>
+      <c r="L56" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" t="s">
+        <v>33</v>
+      </c>
+      <c r="F57" t="s">
+        <v>33</v>
+      </c>
+      <c r="H57" t="s">
+        <v>33</v>
+      </c>
+      <c r="I57" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>69</v>
       </c>
-      <c r="G14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="G59" t="s">
+        <v>33</v>
+      </c>
+      <c r="H59" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>74</v>
+      </c>
+      <c r="L60" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>56</v>
+      </c>
+      <c r="F61" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>21</v>
       </c>
-      <c r="G15" t="s">
-        <v>33</v>
-      </c>
-      <c r="J15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" t="s">
-        <v>33</v>
-      </c>
-      <c r="J16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" t="s">
-        <v>33</v>
-      </c>
-      <c r="K17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" t="s">
-        <v>33</v>
-      </c>
-      <c r="J18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>118</v>
-      </c>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22" t="s">
-        <v>33</v>
-      </c>
-      <c r="I22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" t="s">
-        <v>33</v>
-      </c>
-      <c r="J23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>70</v>
-      </c>
-      <c r="K25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>12</v>
-      </c>
-      <c r="J26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>119</v>
-      </c>
-      <c r="H27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>121</v>
-      </c>
-      <c r="H28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>120</v>
-      </c>
-      <c r="H29" t="s">
-        <v>33</v>
-      </c>
-      <c r="I29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>13</v>
-      </c>
-      <c r="J30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" t="s">
-        <v>33</v>
-      </c>
-      <c r="F31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>61</v>
-      </c>
-      <c r="F32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" t="s">
-        <v>33</v>
-      </c>
-      <c r="J35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>71</v>
-      </c>
-      <c r="K36" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>54</v>
-      </c>
-      <c r="F38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>133</v>
-      </c>
-      <c r="I39" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" t="s">
-        <v>33</v>
-      </c>
-      <c r="E40" t="s">
-        <v>33</v>
-      </c>
-      <c r="F40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" t="s">
-        <v>33</v>
-      </c>
-      <c r="E41" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>122</v>
-      </c>
-      <c r="H42" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>53</v>
-      </c>
-      <c r="F43" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>16</v>
-      </c>
-      <c r="J44" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>123</v>
-      </c>
-      <c r="H45" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>60</v>
-      </c>
-      <c r="F46" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>65</v>
-      </c>
-      <c r="H47" t="s">
-        <v>33</v>
-      </c>
-      <c r="I47" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>17</v>
-      </c>
-      <c r="J48" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" t="s">
-        <v>33</v>
-      </c>
-      <c r="D49" t="s">
-        <v>33</v>
-      </c>
-      <c r="E49" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>124</v>
-      </c>
-      <c r="H50" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>125</v>
-      </c>
-      <c r="H51" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>18</v>
-      </c>
-      <c r="J52" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>19</v>
-      </c>
-      <c r="J53" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>41</v>
-      </c>
-      <c r="B54" t="s">
-        <v>33</v>
-      </c>
-      <c r="D54" t="s">
-        <v>33</v>
-      </c>
-      <c r="E54" t="s">
-        <v>33</v>
-      </c>
-      <c r="F54" t="s">
-        <v>33</v>
-      </c>
-      <c r="H54" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>72</v>
-      </c>
-      <c r="K55" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>20</v>
-      </c>
-      <c r="B56" t="s">
-        <v>33</v>
-      </c>
-      <c r="J56" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>126</v>
-      </c>
-      <c r="H57" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>73</v>
-      </c>
-      <c r="K58" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>48</v>
-      </c>
-      <c r="B59" t="s">
-        <v>33</v>
-      </c>
-      <c r="D59" t="s">
-        <v>33</v>
-      </c>
-      <c r="F59" t="s">
-        <v>33</v>
-      </c>
-      <c r="H59" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>46</v>
-      </c>
-      <c r="B60" t="s">
-        <v>33</v>
-      </c>
-      <c r="D60" t="s">
-        <v>33</v>
-      </c>
-      <c r="E60" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>74</v>
-      </c>
-      <c r="K61" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>56</v>
-      </c>
-      <c r="F62" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G62" t="s">
+        <v>33</v>
+      </c>
+      <c r="J62" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>22</v>
+      </c>
+      <c r="H63" t="s">
+        <v>33</v>
+      </c>
+      <c r="J63" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>134</v>
       </c>
-      <c r="I63" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>22</v>
-      </c>
-      <c r="H64" t="s">
-        <v>33</v>
-      </c>
-      <c r="J64" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I64" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>127</v>
+      </c>
+      <c r="H65" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>135</v>
+      </c>
+      <c r="I66" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>23</v>
       </c>
-      <c r="J65" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>127</v>
-      </c>
-      <c r="H66" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>135</v>
-      </c>
-      <c r="I67" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J67" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>142</v>
+      </c>
+      <c r="I68" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>24</v>
       </c>
-      <c r="J68" t="s">
-        <v>33</v>
-      </c>
-      <c r="K68" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>128</v>
-      </c>
-      <c r="H69" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I69" t="s">
+        <v>33</v>
+      </c>
+      <c r="J69" t="s">
+        <v>33</v>
+      </c>
+      <c r="L69" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>40</v>
       </c>
@@ -1863,37 +1905,37 @@
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>25</v>
       </c>
+      <c r="I71" t="s">
+        <v>33</v>
+      </c>
       <c r="J71" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>44</v>
       </c>
       <c r="B72" t="s">
         <v>33</v>
       </c>
-      <c r="I72" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>26</v>
       </c>
       <c r="J73" t="s">
         <v>33</v>
       </c>
-      <c r="K73" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L73" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>27</v>
       </c>
@@ -1901,113 +1943,125 @@
         <v>33</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>28</v>
       </c>
       <c r="F75" t="s">
         <v>33</v>
       </c>
+      <c r="I75" t="s">
+        <v>33</v>
+      </c>
       <c r="J75" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>143</v>
+      </c>
+      <c r="I76" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>45</v>
       </c>
-      <c r="B76" t="s">
-        <v>33</v>
-      </c>
-      <c r="D76" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+      <c r="B77" t="s">
+        <v>33</v>
+      </c>
+      <c r="D77" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>51</v>
       </c>
-      <c r="F77" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+      <c r="F78" t="s">
+        <v>33</v>
+      </c>
+      <c r="I78" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>29</v>
+      </c>
+      <c r="B79" t="s">
+        <v>33</v>
+      </c>
+      <c r="D79" t="s">
+        <v>33</v>
+      </c>
+      <c r="E79" t="s">
+        <v>33</v>
+      </c>
+      <c r="G79" t="s">
+        <v>33</v>
+      </c>
+      <c r="J79" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>128</v>
+      </c>
+      <c r="H80" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>75</v>
       </c>
-      <c r="H78" t="s">
-        <v>33</v>
-      </c>
-      <c r="K78" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+      <c r="H81" t="s">
+        <v>33</v>
+      </c>
+      <c r="L81" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>57</v>
       </c>
-      <c r="F79" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+      <c r="F82" t="s">
+        <v>33</v>
+      </c>
+      <c r="I82" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>136</v>
       </c>
-      <c r="I80" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>30</v>
       </c>
-      <c r="J81" t="s">
-        <v>33</v>
-      </c>
-      <c r="K81" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>129</v>
-      </c>
-      <c r="H82" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>130</v>
-      </c>
-      <c r="H83" t="s">
-        <v>33</v>
-      </c>
-      <c r="I83" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+      <c r="J84" t="s">
+        <v>33</v>
+      </c>
+      <c r="L84" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>31</v>
       </c>
-      <c r="J84" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>131</v>
-      </c>
-      <c r="H85" t="s">
-        <v>33</v>
-      </c>
-      <c r="I85" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J85" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>38</v>
       </c>
@@ -2021,33 +2075,80 @@
         <v>33</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>76</v>
       </c>
-      <c r="K87" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L87" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>129</v>
+      </c>
+      <c r="H88" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>130</v>
+      </c>
+      <c r="H89" t="s">
+        <v>33</v>
+      </c>
+      <c r="I89" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>59</v>
       </c>
-      <c r="F88" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+      <c r="F90" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>131</v>
+      </c>
+      <c r="H91" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>132</v>
       </c>
-      <c r="H89" t="s">
+      <c r="H92" t="s">
+        <v>33</v>
+      </c>
+      <c r="I92" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>32</v>
+      </c>
+      <c r="B93" t="s">
+        <v>33</v>
+      </c>
+      <c r="G93" t="s">
+        <v>33</v>
+      </c>
+      <c r="J93" t="s">
+        <v>33</v>
+      </c>
+      <c r="L93" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:L89">
-    <sortCondition ref="G2:G89"/>
+  <sortState ref="A2:K90">
+    <sortCondition ref="A2:A90"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2070,17 +2171,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
@@ -2223,7 +2324,7 @@
       <c r="B8" s="13">
         <v>0.83</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="21">
         <v>0</v>
       </c>
       <c r="D8" s="13">
@@ -2341,30 +2442,30 @@
       <c r="I16" s="11"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2380,7 +2481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -2395,18 +2496,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="29" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
@@ -2854,30 +2955,30 @@
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2925,7 +3026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="N23" sqref="N23"/>
     </sheetView>
@@ -2943,17 +3044,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -3435,19 +3536,19 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">

--- a/documentation/PanelSummaries.xlsx
+++ b/documentation/PanelSummaries.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20780" yWindow="480" windowWidth="17600" windowHeight="19480" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="20780" yWindow="480" windowWidth="17600" windowHeight="19480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Panels" sheetId="1" r:id="rId1"/>
@@ -780,7 +780,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1090,9 +1090,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L93"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1179,21 +1179,24 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
       </c>
       <c r="J5" t="s">
         <v>33</v>
@@ -1204,118 +1207,103 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
       </c>
       <c r="H9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
         <v>33</v>
       </c>
       <c r="J10" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>119</v>
-      </c>
-      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>70</v>
-      </c>
-      <c r="L13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>120</v>
-      </c>
-      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
         <v>33</v>
       </c>
       <c r="I14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>33</v>
       </c>
       <c r="J15" t="s">
         <v>33</v>
@@ -1323,141 +1311,165 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" t="s">
-        <v>33</v>
-      </c>
-      <c r="L16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>121</v>
-      </c>
-      <c r="H17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>24</v>
+      </c>
+      <c r="I18" t="s">
+        <v>33</v>
       </c>
       <c r="J18" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>139</v>
+        <v>28</v>
+      </c>
+      <c r="F22" t="s">
+        <v>33</v>
       </c>
       <c r="I22" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>33</v>
       </c>
       <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>71</v>
-      </c>
-      <c r="L25" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" t="s">
+        <v>33</v>
+      </c>
+      <c r="L26" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>55</v>
+      </c>
+      <c r="F27" t="s">
+        <v>33</v>
       </c>
       <c r="G27" t="s">
         <v>33</v>
       </c>
-      <c r="H27" t="s">
-        <v>33</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="L27" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>54</v>
-      </c>
-      <c r="F28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" t="s">
+        <v>33</v>
+      </c>
+      <c r="L28" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
         <v>33</v>
@@ -1469,15 +1481,12 @@
         <v>33</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
@@ -1488,191 +1497,200 @@
       <c r="E30" t="s">
         <v>33</v>
       </c>
-      <c r="F30" t="s">
+      <c r="H30" t="s">
+        <v>33</v>
+      </c>
+      <c r="I30" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>133</v>
-      </c>
-      <c r="I31" t="s">
+        <v>118</v>
+      </c>
+      <c r="H31" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="E33" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>53</v>
-      </c>
-      <c r="F34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="L34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>120</v>
+      </c>
+      <c r="H35" t="s">
+        <v>33</v>
       </c>
       <c r="I35" t="s">
         <v>33</v>
       </c>
-      <c r="J35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>58</v>
+      </c>
+      <c r="F36" t="s">
+        <v>33</v>
       </c>
       <c r="G36" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>60</v>
-      </c>
-      <c r="F37" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="H37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>123</v>
-      </c>
-      <c r="H38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" t="s">
+        <v>33</v>
+      </c>
+      <c r="I38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>17</v>
-      </c>
-      <c r="J39" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="F39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>140</v>
-      </c>
-      <c r="I40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="B40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" t="s">
-        <v>33</v>
-      </c>
-      <c r="E41" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="I41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>141</v>
-      </c>
-      <c r="I42" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="B42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>65</v>
-      </c>
-      <c r="G43" t="s">
-        <v>33</v>
-      </c>
-      <c r="H43" t="s">
-        <v>33</v>
-      </c>
-      <c r="I43" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="L43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>124</v>
-      </c>
-      <c r="H44" t="s">
-        <v>33</v>
-      </c>
-      <c r="I44" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I45" t="s">
-        <v>33</v>
-      </c>
-      <c r="J45" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="F45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>19</v>
-      </c>
-      <c r="J46" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" t="s">
+        <v>33</v>
+      </c>
+      <c r="F46" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>125</v>
-      </c>
-      <c r="H47" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="B47" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>41</v>
-      </c>
-      <c r="B48" t="s">
-        <v>33</v>
-      </c>
-      <c r="D48" t="s">
-        <v>33</v>
-      </c>
-      <c r="E48" t="s">
-        <v>33</v>
-      </c>
-      <c r="F48" t="s">
-        <v>33</v>
-      </c>
-      <c r="H48" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="I48" t="s">
         <v>33</v>
@@ -1680,10 +1698,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>66</v>
-      </c>
-      <c r="G49" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="H49" t="s">
         <v>33</v>
@@ -1691,51 +1706,45 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>52</v>
-      </c>
-      <c r="F50" t="s">
-        <v>33</v>
-      </c>
-      <c r="G50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>72</v>
-      </c>
-      <c r="L51" t="s">
+        <v>53</v>
+      </c>
+      <c r="F51" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>20</v>
-      </c>
-      <c r="B52" t="s">
-        <v>33</v>
-      </c>
-      <c r="I52" t="s">
-        <v>33</v>
-      </c>
-      <c r="J52" t="s">
+        <v>64</v>
+      </c>
+      <c r="G52" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>67</v>
-      </c>
-      <c r="G53" t="s">
-        <v>33</v>
-      </c>
-      <c r="H53" t="s">
+        <v>60</v>
+      </c>
+      <c r="F53" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H54" t="s">
         <v>33</v>
@@ -1743,35 +1752,29 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>68</v>
-      </c>
-      <c r="G55" t="s">
+        <v>140</v>
+      </c>
+      <c r="I55" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>73</v>
-      </c>
-      <c r="L56" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" t="s">
+        <v>33</v>
+      </c>
+      <c r="E56" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>48</v>
-      </c>
-      <c r="B57" t="s">
-        <v>33</v>
-      </c>
-      <c r="D57" t="s">
-        <v>33</v>
-      </c>
-      <c r="F57" t="s">
-        <v>33</v>
-      </c>
-      <c r="H57" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="I57" t="s">
         <v>33</v>
@@ -1779,78 +1782,96 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>46</v>
-      </c>
-      <c r="B58" t="s">
-        <v>33</v>
-      </c>
-      <c r="D58" t="s">
-        <v>33</v>
-      </c>
-      <c r="E58" t="s">
+        <v>65</v>
+      </c>
+      <c r="G58" t="s">
+        <v>33</v>
+      </c>
+      <c r="H58" t="s">
+        <v>33</v>
+      </c>
+      <c r="I58" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>69</v>
-      </c>
-      <c r="G59" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="H59" t="s">
+        <v>33</v>
+      </c>
+      <c r="I59" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>74</v>
-      </c>
-      <c r="L60" t="s">
+        <v>125</v>
+      </c>
+      <c r="H60" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>56</v>
+        <v>41</v>
+      </c>
+      <c r="B61" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61" t="s">
+        <v>33</v>
+      </c>
+      <c r="E61" t="s">
+        <v>33</v>
       </c>
       <c r="F61" t="s">
+        <v>33</v>
+      </c>
+      <c r="H61" t="s">
+        <v>33</v>
+      </c>
+      <c r="I61" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="G62" t="s">
         <v>33</v>
       </c>
-      <c r="J62" t="s">
+      <c r="H62" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>22</v>
-      </c>
-      <c r="H63" t="s">
-        <v>33</v>
-      </c>
-      <c r="J63" t="s">
+        <v>52</v>
+      </c>
+      <c r="F63" t="s">
+        <v>33</v>
+      </c>
+      <c r="G63" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>134</v>
-      </c>
-      <c r="I64" t="s">
+        <v>72</v>
+      </c>
+      <c r="L64" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>127</v>
+        <v>67</v>
+      </c>
+      <c r="G65" t="s">
+        <v>33</v>
       </c>
       <c r="H65" t="s">
         <v>33</v>
@@ -1858,108 +1879,108 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>135</v>
-      </c>
-      <c r="I66" t="s">
+        <v>126</v>
+      </c>
+      <c r="H66" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>23</v>
-      </c>
-      <c r="J67" t="s">
+        <v>68</v>
+      </c>
+      <c r="G67" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>142</v>
-      </c>
-      <c r="I68" t="s">
+        <v>73</v>
+      </c>
+      <c r="L68" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>24</v>
+        <v>48</v>
+      </c>
+      <c r="B69" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" t="s">
+        <v>33</v>
+      </c>
+      <c r="F69" t="s">
+        <v>33</v>
+      </c>
+      <c r="H69" t="s">
+        <v>33</v>
       </c>
       <c r="I69" t="s">
-        <v>33</v>
-      </c>
-      <c r="J69" t="s">
-        <v>33</v>
-      </c>
-      <c r="L69" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B70" t="s">
         <v>33</v>
       </c>
       <c r="D70" t="s">
+        <v>33</v>
+      </c>
+      <c r="E70" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>25</v>
-      </c>
-      <c r="I71" t="s">
-        <v>33</v>
-      </c>
-      <c r="J71" t="s">
+        <v>69</v>
+      </c>
+      <c r="G71" t="s">
+        <v>33</v>
+      </c>
+      <c r="H71" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>44</v>
-      </c>
-      <c r="B72" t="s">
+        <v>74</v>
+      </c>
+      <c r="L72" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>26</v>
-      </c>
-      <c r="J73" t="s">
-        <v>33</v>
-      </c>
-      <c r="L73" t="s">
+        <v>56</v>
+      </c>
+      <c r="F73" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>27</v>
-      </c>
-      <c r="J74" t="s">
+        <v>134</v>
+      </c>
+      <c r="I74" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>28</v>
-      </c>
-      <c r="F75" t="s">
-        <v>33</v>
-      </c>
-      <c r="I75" t="s">
-        <v>33</v>
-      </c>
-      <c r="J75" t="s">
+        <v>127</v>
+      </c>
+      <c r="H75" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="I76" t="s">
         <v>33</v>
@@ -1967,68 +1988,53 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>45</v>
-      </c>
-      <c r="B77" t="s">
-        <v>33</v>
-      </c>
-      <c r="D77" t="s">
+        <v>142</v>
+      </c>
+      <c r="I77" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>51</v>
-      </c>
-      <c r="F78" t="s">
-        <v>33</v>
-      </c>
-      <c r="I78" t="s">
+        <v>40</v>
+      </c>
+      <c r="B78" t="s">
+        <v>33</v>
+      </c>
+      <c r="D78" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B79" t="s">
-        <v>33</v>
-      </c>
-      <c r="D79" t="s">
-        <v>33</v>
-      </c>
-      <c r="E79" t="s">
-        <v>33</v>
-      </c>
-      <c r="G79" t="s">
-        <v>33</v>
-      </c>
-      <c r="J79" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>128</v>
-      </c>
-      <c r="H80" t="s">
+        <v>143</v>
+      </c>
+      <c r="I80" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>75</v>
-      </c>
-      <c r="H81" t="s">
-        <v>33</v>
-      </c>
-      <c r="L81" t="s">
+        <v>45</v>
+      </c>
+      <c r="B81" t="s">
+        <v>33</v>
+      </c>
+      <c r="D81" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F82" t="s">
         <v>33</v>
@@ -2039,14 +2045,17 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>136</v>
+        <v>128</v>
+      </c>
+      <c r="H83" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>30</v>
-      </c>
-      <c r="J84" t="s">
+        <v>75</v>
+      </c>
+      <c r="H84" t="s">
         <v>33</v>
       </c>
       <c r="L84" t="s">
@@ -2055,100 +2064,91 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>31</v>
-      </c>
-      <c r="J85" t="s">
+        <v>57</v>
+      </c>
+      <c r="F85" t="s">
+        <v>33</v>
+      </c>
+      <c r="I85" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>38</v>
-      </c>
-      <c r="B86" t="s">
-        <v>33</v>
-      </c>
-      <c r="D86" t="s">
-        <v>33</v>
-      </c>
-      <c r="E86" t="s">
-        <v>33</v>
+        <v>136</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>76</v>
-      </c>
-      <c r="L87" t="s">
+        <v>38</v>
+      </c>
+      <c r="B87" t="s">
+        <v>33</v>
+      </c>
+      <c r="D87" t="s">
+        <v>33</v>
+      </c>
+      <c r="E87" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>129</v>
-      </c>
-      <c r="H88" t="s">
+        <v>76</v>
+      </c>
+      <c r="L88" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H89" t="s">
-        <v>33</v>
-      </c>
-      <c r="I89" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>59</v>
-      </c>
-      <c r="F90" t="s">
+        <v>130</v>
+      </c>
+      <c r="H90" t="s">
+        <v>33</v>
+      </c>
+      <c r="I90" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>131</v>
-      </c>
-      <c r="H91" t="s">
+        <v>59</v>
+      </c>
+      <c r="F91" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H92" t="s">
-        <v>33</v>
-      </c>
-      <c r="I92" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>32</v>
-      </c>
-      <c r="B93" t="s">
-        <v>33</v>
-      </c>
-      <c r="G93" t="s">
-        <v>33</v>
-      </c>
-      <c r="J93" t="s">
-        <v>33</v>
-      </c>
-      <c r="L93" t="s">
+        <v>132</v>
+      </c>
+      <c r="H93" t="s">
+        <v>33</v>
+      </c>
+      <c r="I93" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:K90">
-    <sortCondition ref="A2:A90"/>
+  <sortState ref="A2:L93">
+    <sortCondition ref="J2:J93"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2158,7 +2158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -2481,7 +2481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -3026,7 +3026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showRuler="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="N23" sqref="N23"/>
     </sheetView>
